--- a/Maaleenhed/Spaendingsmaaler uden FFT/Arrayudskrift.xlsx
+++ b/Maaleenhed/Spaendingsmaaler uden FFT/Arrayudskrift.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Soren/Library/Mobile Documents/com~apple~CloudDocs/SKOLE/4. Semester/PRJ4 - Semesterprojekt 4/Maaleenhed/Spaendingsmaaler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Soren/Library/Mobile Documents/com~apple~CloudDocs/SKOLE/4. Semester/PRJ4 - Semesterprojekt 4/Maaleenhed/Spaendingsmaaler uden FFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Ark4 (2)" sheetId="5" r:id="rId5"/>
     <sheet name="Test godkendt." sheetId="6" r:id="rId6"/>
     <sheet name="Test 64bit" sheetId="7" r:id="rId7"/>
+    <sheet name="1periode" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="443">
   <si>
     <t>SampleArray</t>
   </si>
@@ -1347,6 +1348,21 @@
   </si>
   <si>
     <t>0x20007E8C (All)</t>
+  </si>
+  <si>
+    <t>0x20007DBC (All)</t>
+  </si>
+  <si>
+    <t>0x20007DC0 (All)</t>
+  </si>
+  <si>
+    <t>0x20007DC4 (All)</t>
+  </si>
+  <si>
+    <t>0x20007DC8 (All)</t>
+  </si>
+  <si>
+    <t>0x20007DCC (All)</t>
   </si>
 </sst>
 </file>
@@ -2088,11 +2104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="784393664"/>
-        <c:axId val="784395296"/>
+        <c:axId val="600891520"/>
+        <c:axId val="600916368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="784393664"/>
+        <c:axId val="600891520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,12 +2164,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784395296"/>
+        <c:crossAx val="600916368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="784395296"/>
+        <c:axId val="600916368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2225,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784393664"/>
+        <c:crossAx val="600891520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3178,11 +3194,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="679390848"/>
-        <c:axId val="679393328"/>
+        <c:axId val="600973456"/>
+        <c:axId val="600975936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="679390848"/>
+        <c:axId val="600973456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3238,12 +3254,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679393328"/>
+        <c:crossAx val="600975936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="679393328"/>
+        <c:axId val="600975936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3299,7 +3315,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679390848"/>
+        <c:crossAx val="600973456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5228,11 +5244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="679425904"/>
-        <c:axId val="679428384"/>
+        <c:axId val="539693568"/>
+        <c:axId val="539695632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="679425904"/>
+        <c:axId val="539693568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5288,12 +5304,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679428384"/>
+        <c:crossAx val="539695632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="679428384"/>
+        <c:axId val="539695632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5349,7 +5365,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679425904"/>
+        <c:crossAx val="539693568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5770,11 +5786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="783337408"/>
-        <c:axId val="783339888"/>
+        <c:axId val="598912048"/>
+        <c:axId val="598914112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="783337408"/>
+        <c:axId val="598912048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5830,12 +5846,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783339888"/>
+        <c:crossAx val="598914112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="783339888"/>
+        <c:axId val="598914112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5891,7 +5907,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783337408"/>
+        <c:crossAx val="598912048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6324,11 +6340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="783363904"/>
-        <c:axId val="783366384"/>
+        <c:axId val="598941264"/>
+        <c:axId val="598943744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="783363904"/>
+        <c:axId val="598941264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6384,12 +6400,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783366384"/>
+        <c:crossAx val="598943744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="783366384"/>
+        <c:axId val="598943744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6445,7 +6461,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783363904"/>
+        <c:crossAx val="598941264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7118,11 +7134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="783403936"/>
-        <c:axId val="783406416"/>
+        <c:axId val="539734800"/>
+        <c:axId val="539737280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="783403936"/>
+        <c:axId val="539734800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7178,12 +7194,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783406416"/>
+        <c:crossAx val="539737280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="783406416"/>
+        <c:axId val="539737280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7239,7 +7255,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="783403936"/>
+        <c:crossAx val="539734800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7912,11 +7928,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="802743920"/>
-        <c:axId val="802746400"/>
+        <c:axId val="539768160"/>
+        <c:axId val="539770640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="802743920"/>
+        <c:axId val="539768160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7972,12 +7988,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="802746400"/>
+        <c:crossAx val="539770640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="802746400"/>
+        <c:axId val="539770640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8033,7 +8049,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="802743920"/>
+        <c:crossAx val="539768160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8047,7 +8063,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9026,11 +9041,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="798381280"/>
-        <c:axId val="798383328"/>
+        <c:axId val="539798400"/>
+        <c:axId val="539800880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="798381280"/>
+        <c:axId val="539798400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9086,12 +9101,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="798383328"/>
+        <c:crossAx val="539800880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="798383328"/>
+        <c:axId val="539800880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9147,7 +9162,1122 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="798381280"/>
+        <c:crossAx val="539798400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1periode'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SampleArrayU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1periode'!$A$2:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1periode'!$B$2:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>3577.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3549.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3512.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3464.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3408.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3343.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3272.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3193.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3107.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3017.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2922.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2823.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2721.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2619.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2515.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2412.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2310.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2210.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2114.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1935.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1854.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1780.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1713.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1655.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1604.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1563.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1531.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1510.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1498.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1496.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1505.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1523.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1552.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1591.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1639.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1695.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1759.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1831.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1911.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1996.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2086.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2181.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2279.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2380.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2484.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2588.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2690.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2792.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2892.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2988.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3080.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3167.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3249.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3323.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3390.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3448.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3498.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3539.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3570.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3591.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3602.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3603.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3594.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1periode'!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SampleArrayI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1periode'!$A$67:$A$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1periode'!$B$67:$B$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>3388.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3573.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3750.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3915.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4066.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4204.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4325.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4429.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4514.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4581.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4627.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4655.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4662.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4648.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4614.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4559.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4486.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4393.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4283.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4156.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4014.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3858.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3688.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3509.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3320.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3125.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2923.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2718.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2512.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2306.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2104.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1905.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1711.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1526.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1351.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1188.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1038.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>903.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>784.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>682.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>598.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>533.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>487.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>461.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>456.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>505.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>634.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>727.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>837.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>963.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1105.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1262.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1431.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1610.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1798.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1994.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2196.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2401.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2607.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2812.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3016.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3215.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="627845472"/>
+        <c:axId val="627847520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="627845472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627847520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="627847520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627845472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9509,6 +10639,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13676,6 +14846,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13921,6 +15607,43 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -25734,6 +27457,1859 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D131"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1671</v>
+      </c>
+      <c r="C2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1830</v>
+      </c>
+      <c r="C3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2028</v>
+      </c>
+      <c r="C4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2254</v>
+      </c>
+      <c r="C5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2497</v>
+      </c>
+      <c r="C6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2742</v>
+      </c>
+      <c r="C7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2978</v>
+      </c>
+      <c r="C8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3369</v>
+      </c>
+      <c r="C10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3502</v>
+      </c>
+      <c r="C11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3583</v>
+      </c>
+      <c r="C12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3608</v>
+      </c>
+      <c r="C13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3575</v>
+      </c>
+      <c r="C14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3486</v>
+      </c>
+      <c r="C15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3346</v>
+      </c>
+      <c r="C16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3163</v>
+      </c>
+      <c r="C17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2947</v>
+      </c>
+      <c r="C18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2709</v>
+      </c>
+      <c r="C19" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2464</v>
+      </c>
+      <c r="C20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2223</v>
+      </c>
+      <c r="C21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1806</v>
+      </c>
+      <c r="C23" t="s">
+        <v>385</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1654</v>
+      </c>
+      <c r="C24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1550</v>
+      </c>
+      <c r="C25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1501</v>
+      </c>
+      <c r="C26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1509</v>
+      </c>
+      <c r="C27" t="s">
+        <v>345</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1574</v>
+      </c>
+      <c r="C28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1692</v>
+      </c>
+      <c r="C29" t="s">
+        <v>325</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1857</v>
+      </c>
+      <c r="C30" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2059</v>
+      </c>
+      <c r="C31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2289</v>
+      </c>
+      <c r="C32" t="s">
+        <v>328</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2533</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2778</v>
+      </c>
+      <c r="C34" t="s">
+        <v>330</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>3010</v>
+      </c>
+      <c r="C35" t="s">
+        <v>331</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3219</v>
+      </c>
+      <c r="C36" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3390</v>
+      </c>
+      <c r="C37" t="s">
+        <v>333</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>3516</v>
+      </c>
+      <c r="C38" t="s">
+        <v>334</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>3590</v>
+      </c>
+      <c r="C39" t="s">
+        <v>335</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>3606</v>
+      </c>
+      <c r="C40" t="s">
+        <v>336</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>3565</v>
+      </c>
+      <c r="C41" t="s">
+        <v>337</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>3469</v>
+      </c>
+      <c r="C42" t="s">
+        <v>338</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>3323</v>
+      </c>
+      <c r="C43" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>3134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>340</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>2915</v>
+      </c>
+      <c r="C45" t="s">
+        <v>341</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>2675</v>
+      </c>
+      <c r="C46" t="s">
+        <v>342</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>2429</v>
+      </c>
+      <c r="C47" t="s">
+        <v>343</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>2190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>312</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1970</v>
+      </c>
+      <c r="C49" t="s">
+        <v>313</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1783</v>
+      </c>
+      <c r="C50" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1636</v>
+      </c>
+      <c r="C51" t="s">
+        <v>315</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1541</v>
+      </c>
+      <c r="C52" t="s">
+        <v>316</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1499</v>
+      </c>
+      <c r="C53" t="s">
+        <v>317</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1515</v>
+      </c>
+      <c r="C54" t="s">
+        <v>318</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1588</v>
+      </c>
+      <c r="C55" t="s">
+        <v>319</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1712</v>
+      </c>
+      <c r="C56" t="s">
+        <v>320</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1883</v>
+      </c>
+      <c r="C57" t="s">
+        <v>321</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>2090</v>
+      </c>
+      <c r="C58" t="s">
+        <v>304</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>2322</v>
+      </c>
+      <c r="C59" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>2567</v>
+      </c>
+      <c r="C60" t="s">
+        <v>306</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2810</v>
+      </c>
+      <c r="C61" t="s">
+        <v>307</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3040</v>
+      </c>
+      <c r="C62" t="s">
+        <v>308</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3244</v>
+      </c>
+      <c r="C63" t="s">
+        <v>309</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3411</v>
+      </c>
+      <c r="C64" t="s">
+        <v>310</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3530</v>
+      </c>
+      <c r="C65" t="s">
+        <v>311</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" t="s">
+        <v>388</v>
+      </c>
+      <c r="C66" t="s">
+        <v>390</v>
+      </c>
+      <c r="D66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>1001</v>
+      </c>
+      <c r="C67" t="s">
+        <v>390</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>1372</v>
+      </c>
+      <c r="C68" t="s">
+        <v>391</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>1806</v>
+      </c>
+      <c r="C69" t="s">
+        <v>392</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>2282</v>
+      </c>
+      <c r="C70" t="s">
+        <v>393</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>2772</v>
+      </c>
+      <c r="C71" t="s">
+        <v>394</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>3253</v>
+      </c>
+      <c r="C72" t="s">
+        <v>395</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>3696</v>
+      </c>
+      <c r="C73" t="s">
+        <v>396</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74">
+        <v>4078</v>
+      </c>
+      <c r="C74" t="s">
+        <v>397</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>4375</v>
+      </c>
+      <c r="C75" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>4573</v>
+      </c>
+      <c r="C76" t="s">
+        <v>399</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>4661</v>
+      </c>
+      <c r="C77" t="s">
+        <v>400</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>11</v>
+      </c>
+      <c r="B78">
+        <v>4634</v>
+      </c>
+      <c r="C78" t="s">
+        <v>401</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>4495</v>
+      </c>
+      <c r="C79" t="s">
+        <v>402</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>4250</v>
+      </c>
+      <c r="C80" t="s">
+        <v>403</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>14</v>
+      </c>
+      <c r="B81">
+        <v>3912</v>
+      </c>
+      <c r="C81" t="s">
+        <v>404</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>15</v>
+      </c>
+      <c r="B82">
+        <v>3500</v>
+      </c>
+      <c r="C82" t="s">
+        <v>405</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>16</v>
+      </c>
+      <c r="B83">
+        <v>3038</v>
+      </c>
+      <c r="C83" t="s">
+        <v>406</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>17</v>
+      </c>
+      <c r="B84">
+        <v>2549</v>
+      </c>
+      <c r="C84" t="s">
+        <v>407</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>18</v>
+      </c>
+      <c r="B85">
+        <v>2062</v>
+      </c>
+      <c r="C85" t="s">
+        <v>408</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>19</v>
+      </c>
+      <c r="B86">
+        <v>1602</v>
+      </c>
+      <c r="C86" t="s">
+        <v>409</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>20</v>
+      </c>
+      <c r="B87">
+        <v>1195</v>
+      </c>
+      <c r="C87" t="s">
+        <v>410</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>21</v>
+      </c>
+      <c r="B88">
+        <v>862</v>
+      </c>
+      <c r="C88" t="s">
+        <v>411</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>22</v>
+      </c>
+      <c r="B89">
+        <v>621</v>
+      </c>
+      <c r="C89" t="s">
+        <v>412</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>23</v>
+      </c>
+      <c r="B90">
+        <v>486</v>
+      </c>
+      <c r="C90" t="s">
+        <v>413</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>24</v>
+      </c>
+      <c r="B91">
+        <v>463</v>
+      </c>
+      <c r="C91" t="s">
+        <v>414</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>25</v>
+      </c>
+      <c r="B92">
+        <v>554</v>
+      </c>
+      <c r="C92" t="s">
+        <v>415</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>26</v>
+      </c>
+      <c r="B93">
+        <v>754</v>
+      </c>
+      <c r="C93" t="s">
+        <v>416</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>27</v>
+      </c>
+      <c r="B94">
+        <v>1052</v>
+      </c>
+      <c r="C94" t="s">
+        <v>417</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>28</v>
+      </c>
+      <c r="B95">
+        <v>1432</v>
+      </c>
+      <c r="C95" t="s">
+        <v>418</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>29</v>
+      </c>
+      <c r="B96">
+        <v>1874</v>
+      </c>
+      <c r="C96" t="s">
+        <v>419</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>30</v>
+      </c>
+      <c r="B97">
+        <v>2354</v>
+      </c>
+      <c r="C97" t="s">
+        <v>420</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>31</v>
+      </c>
+      <c r="B98">
+        <v>2845</v>
+      </c>
+      <c r="C98" t="s">
+        <v>421</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>32</v>
+      </c>
+      <c r="B99">
+        <v>3321</v>
+      </c>
+      <c r="C99" t="s">
+        <v>422</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>33</v>
+      </c>
+      <c r="B100">
+        <v>3756</v>
+      </c>
+      <c r="C100" t="s">
+        <v>423</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>34</v>
+      </c>
+      <c r="B101">
+        <v>4125</v>
+      </c>
+      <c r="C101" t="s">
+        <v>424</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>35</v>
+      </c>
+      <c r="B102">
+        <v>4410</v>
+      </c>
+      <c r="C102" t="s">
+        <v>425</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>36</v>
+      </c>
+      <c r="B103">
+        <v>4592</v>
+      </c>
+      <c r="C103" t="s">
+        <v>426</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>37</v>
+      </c>
+      <c r="B104">
+        <v>4664</v>
+      </c>
+      <c r="C104" t="s">
+        <v>427</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>38</v>
+      </c>
+      <c r="B105">
+        <v>4622</v>
+      </c>
+      <c r="C105" t="s">
+        <v>428</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>39</v>
+      </c>
+      <c r="B106">
+        <v>4467</v>
+      </c>
+      <c r="C106" t="s">
+        <v>429</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>40</v>
+      </c>
+      <c r="B107">
+        <v>4208</v>
+      </c>
+      <c r="C107" t="s">
+        <v>430</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>41</v>
+      </c>
+      <c r="B108">
+        <v>3858</v>
+      </c>
+      <c r="C108" t="s">
+        <v>431</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>42</v>
+      </c>
+      <c r="B109">
+        <v>3437</v>
+      </c>
+      <c r="C109" t="s">
+        <v>432</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>43</v>
+      </c>
+      <c r="B110">
+        <v>2970</v>
+      </c>
+      <c r="C110" t="s">
+        <v>433</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>44</v>
+      </c>
+      <c r="B111">
+        <v>2479</v>
+      </c>
+      <c r="C111" t="s">
+        <v>434</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>45</v>
+      </c>
+      <c r="B112">
+        <v>1995</v>
+      </c>
+      <c r="C112" t="s">
+        <v>435</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>46</v>
+      </c>
+      <c r="B113">
+        <v>1541</v>
+      </c>
+      <c r="C113" t="s">
+        <v>436</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>47</v>
+      </c>
+      <c r="B114">
+        <v>1143</v>
+      </c>
+      <c r="C114" t="s">
+        <v>437</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>48</v>
+      </c>
+      <c r="B115">
+        <v>822</v>
+      </c>
+      <c r="C115" t="s">
+        <v>348</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>49</v>
+      </c>
+      <c r="B116">
+        <v>596</v>
+      </c>
+      <c r="C116" t="s">
+        <v>349</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>50</v>
+      </c>
+      <c r="B117">
+        <v>476</v>
+      </c>
+      <c r="C117" t="s">
+        <v>350</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>51</v>
+      </c>
+      <c r="B118">
+        <v>469</v>
+      </c>
+      <c r="C118" t="s">
+        <v>351</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>52</v>
+      </c>
+      <c r="B119">
+        <v>575</v>
+      </c>
+      <c r="C119" t="s">
+        <v>352</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>53</v>
+      </c>
+      <c r="B120">
+        <v>789</v>
+      </c>
+      <c r="C120" t="s">
+        <v>353</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>54</v>
+      </c>
+      <c r="B121">
+        <v>1100</v>
+      </c>
+      <c r="C121" t="s">
+        <v>354</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>55</v>
+      </c>
+      <c r="B122">
+        <v>1490</v>
+      </c>
+      <c r="C122" t="s">
+        <v>355</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>56</v>
+      </c>
+      <c r="B123">
+        <v>1938</v>
+      </c>
+      <c r="C123" t="s">
+        <v>356</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>57</v>
+      </c>
+      <c r="B124">
+        <v>2421</v>
+      </c>
+      <c r="C124" t="s">
+        <v>357</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>58</v>
+      </c>
+      <c r="B125">
+        <v>2911</v>
+      </c>
+      <c r="C125" t="s">
+        <v>358</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>59</v>
+      </c>
+      <c r="B126">
+        <v>3382</v>
+      </c>
+      <c r="C126" t="s">
+        <v>359</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>60</v>
+      </c>
+      <c r="B127">
+        <v>3810</v>
+      </c>
+      <c r="C127" t="s">
+        <v>360</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>61</v>
+      </c>
+      <c r="B128">
+        <v>4170</v>
+      </c>
+      <c r="C128" t="s">
+        <v>361</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>62</v>
+      </c>
+      <c r="B129">
+        <v>4441</v>
+      </c>
+      <c r="C129" t="s">
+        <v>362</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>63</v>
+      </c>
+      <c r="B130">
+        <v>4609</v>
+      </c>
+      <c r="C130" t="s">
+        <v>363</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>106</v>
+      </c>
+      <c r="B131" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" t="s">
+        <v>106</v>
+      </c>
+      <c r="D131" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D131"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D131"/>
     </sheetView>
@@ -25751,7 +29327,7 @@
         <v>388</v>
       </c>
       <c r="C1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D1" t="s">
         <v>389</v>
@@ -25762,10 +29338,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1671</v>
+        <v>3577</v>
       </c>
       <c r="C2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -25776,10 +29352,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1830</v>
+        <v>3549</v>
       </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -25790,10 +29366,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2028</v>
+        <v>3512</v>
       </c>
       <c r="C4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -25804,10 +29380,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2254</v>
+        <v>3464</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -25818,10 +29394,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2497</v>
+        <v>3408</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -25832,10 +29408,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2742</v>
+        <v>3343</v>
       </c>
       <c r="C7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -25846,10 +29422,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2978</v>
+        <v>3272</v>
       </c>
       <c r="C8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -25860,10 +29436,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3190</v>
+        <v>3193</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -25874,10 +29450,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3369</v>
+        <v>3107</v>
       </c>
       <c r="C10" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -25888,10 +29464,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3502</v>
+        <v>3017</v>
       </c>
       <c r="C11" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -25902,10 +29478,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3583</v>
+        <v>2922</v>
       </c>
       <c r="C12" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -25916,10 +29492,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3608</v>
+        <v>2823</v>
       </c>
       <c r="C13" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -25930,10 +29506,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3575</v>
+        <v>2721</v>
       </c>
       <c r="C14" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -25944,10 +29520,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3486</v>
+        <v>2619</v>
       </c>
       <c r="C15" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -25958,10 +29534,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3346</v>
+        <v>2515</v>
       </c>
       <c r="C16" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -25972,10 +29548,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3163</v>
+        <v>2412</v>
       </c>
       <c r="C17" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -25986,10 +29562,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2947</v>
+        <v>2310</v>
       </c>
       <c r="C18" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -26000,10 +29576,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2709</v>
+        <v>2210</v>
       </c>
       <c r="C19" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -26014,10 +29590,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2464</v>
+        <v>2114</v>
       </c>
       <c r="C20" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -26028,10 +29604,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2223</v>
+        <v>2022</v>
       </c>
       <c r="C21" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -26042,10 +29618,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2000</v>
+        <v>1935</v>
       </c>
       <c r="C22" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -26056,10 +29632,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1806</v>
+        <v>1854</v>
       </c>
       <c r="C23" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -26070,10 +29646,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1654</v>
+        <v>1780</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -26084,10 +29660,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1550</v>
+        <v>1713</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -26098,10 +29674,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1501</v>
+        <v>1655</v>
       </c>
       <c r="C26" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -26112,10 +29688,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1509</v>
+        <v>1604</v>
       </c>
       <c r="C27" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -26126,10 +29702,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1574</v>
+        <v>1563</v>
       </c>
       <c r="C28" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -26140,10 +29716,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1692</v>
+        <v>1531</v>
       </c>
       <c r="C29" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -26154,10 +29730,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1857</v>
+        <v>1510</v>
       </c>
       <c r="C30" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -26168,10 +29744,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2059</v>
+        <v>1498</v>
       </c>
       <c r="C31" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -26182,10 +29758,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2289</v>
+        <v>1496</v>
       </c>
       <c r="C32" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -26196,10 +29772,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2533</v>
+        <v>1505</v>
       </c>
       <c r="C33" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -26210,10 +29786,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2778</v>
+        <v>1523</v>
       </c>
       <c r="C34" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -26224,10 +29800,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3010</v>
+        <v>1552</v>
       </c>
       <c r="C35" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -26238,10 +29814,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3219</v>
+        <v>1591</v>
       </c>
       <c r="C36" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -26252,10 +29828,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3390</v>
+        <v>1639</v>
       </c>
       <c r="C37" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -26266,10 +29842,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3516</v>
+        <v>1695</v>
       </c>
       <c r="C38" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -26280,10 +29856,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3590</v>
+        <v>1759</v>
       </c>
       <c r="C39" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -26294,10 +29870,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3606</v>
+        <v>1831</v>
       </c>
       <c r="C40" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -26308,10 +29884,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3565</v>
+        <v>1911</v>
       </c>
       <c r="C41" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -26322,10 +29898,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3469</v>
+        <v>1996</v>
       </c>
       <c r="C42" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -26336,10 +29912,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3323</v>
+        <v>2086</v>
       </c>
       <c r="C43" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -26350,10 +29926,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3134</v>
+        <v>2181</v>
       </c>
       <c r="C44" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -26364,10 +29940,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2915</v>
+        <v>2279</v>
       </c>
       <c r="C45" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -26378,10 +29954,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2675</v>
+        <v>2380</v>
       </c>
       <c r="C46" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -26392,10 +29968,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2429</v>
+        <v>2484</v>
       </c>
       <c r="C47" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -26406,10 +29982,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2190</v>
+        <v>2588</v>
       </c>
       <c r="C48" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -26420,10 +29996,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1970</v>
+        <v>2690</v>
       </c>
       <c r="C49" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -26434,10 +30010,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1783</v>
+        <v>2792</v>
       </c>
       <c r="C50" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -26448,10 +30024,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1636</v>
+        <v>2892</v>
       </c>
       <c r="C51" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -26462,10 +30038,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1541</v>
+        <v>2988</v>
       </c>
       <c r="C52" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -26476,10 +30052,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1499</v>
+        <v>3080</v>
       </c>
       <c r="C53" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -26490,10 +30066,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1515</v>
+        <v>3167</v>
       </c>
       <c r="C54" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -26504,10 +30080,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1588</v>
+        <v>3249</v>
       </c>
       <c r="C55" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -26518,10 +30094,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1712</v>
+        <v>3323</v>
       </c>
       <c r="C56" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -26532,10 +30108,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1883</v>
+        <v>3390</v>
       </c>
       <c r="C57" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -26546,10 +30122,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2090</v>
+        <v>3448</v>
       </c>
       <c r="C58" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -26560,10 +30136,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2322</v>
+        <v>3498</v>
       </c>
       <c r="C59" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -26574,10 +30150,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2567</v>
+        <v>3539</v>
       </c>
       <c r="C60" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -26588,10 +30164,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2810</v>
+        <v>3570</v>
       </c>
       <c r="C61" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -26602,10 +30178,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3040</v>
+        <v>3591</v>
       </c>
       <c r="C62" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -26616,10 +30192,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3244</v>
+        <v>3602</v>
       </c>
       <c r="C63" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -26630,10 +30206,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3411</v>
+        <v>3603</v>
       </c>
       <c r="C64" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -26644,10 +30220,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3530</v>
+        <v>3594</v>
       </c>
       <c r="C65" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -26661,7 +30237,7 @@
         <v>388</v>
       </c>
       <c r="C66" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="D66" t="s">
         <v>389</v>
@@ -26672,10 +30248,10 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>1001</v>
+        <v>3388</v>
       </c>
       <c r="C67" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -26686,10 +30262,10 @@
         <v>1</v>
       </c>
       <c r="B68">
-        <v>1372</v>
+        <v>3573</v>
       </c>
       <c r="C68" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -26700,10 +30276,10 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>1806</v>
+        <v>3750</v>
       </c>
       <c r="C69" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -26714,10 +30290,10 @@
         <v>3</v>
       </c>
       <c r="B70">
-        <v>2282</v>
+        <v>3915</v>
       </c>
       <c r="C70" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -26728,10 +30304,10 @@
         <v>4</v>
       </c>
       <c r="B71">
-        <v>2772</v>
+        <v>4066</v>
       </c>
       <c r="C71" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -26742,10 +30318,10 @@
         <v>5</v>
       </c>
       <c r="B72">
-        <v>3253</v>
+        <v>4204</v>
       </c>
       <c r="C72" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -26756,10 +30332,10 @@
         <v>6</v>
       </c>
       <c r="B73">
-        <v>3696</v>
+        <v>4325</v>
       </c>
       <c r="C73" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -26770,10 +30346,10 @@
         <v>7</v>
       </c>
       <c r="B74">
-        <v>4078</v>
+        <v>4429</v>
       </c>
       <c r="C74" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -26784,10 +30360,10 @@
         <v>8</v>
       </c>
       <c r="B75">
-        <v>4375</v>
+        <v>4514</v>
       </c>
       <c r="C75" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -26798,10 +30374,10 @@
         <v>9</v>
       </c>
       <c r="B76">
-        <v>4573</v>
+        <v>4581</v>
       </c>
       <c r="C76" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -26812,10 +30388,10 @@
         <v>10</v>
       </c>
       <c r="B77">
-        <v>4661</v>
+        <v>4627</v>
       </c>
       <c r="C77" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -26826,10 +30402,10 @@
         <v>11</v>
       </c>
       <c r="B78">
-        <v>4634</v>
+        <v>4655</v>
       </c>
       <c r="C78" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -26840,10 +30416,10 @@
         <v>12</v>
       </c>
       <c r="B79">
-        <v>4495</v>
+        <v>4662</v>
       </c>
       <c r="C79" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -26854,10 +30430,10 @@
         <v>13</v>
       </c>
       <c r="B80">
-        <v>4250</v>
+        <v>4648</v>
       </c>
       <c r="C80" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -26868,10 +30444,10 @@
         <v>14</v>
       </c>
       <c r="B81">
-        <v>3912</v>
+        <v>4614</v>
       </c>
       <c r="C81" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -26882,10 +30458,10 @@
         <v>15</v>
       </c>
       <c r="B82">
-        <v>3500</v>
+        <v>4559</v>
       </c>
       <c r="C82" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D82" t="s">
         <v>5</v>
@@ -26896,10 +30472,10 @@
         <v>16</v>
       </c>
       <c r="B83">
-        <v>3038</v>
+        <v>4486</v>
       </c>
       <c r="C83" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D83" t="s">
         <v>5</v>
@@ -26910,10 +30486,10 @@
         <v>17</v>
       </c>
       <c r="B84">
-        <v>2549</v>
+        <v>4393</v>
       </c>
       <c r="C84" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D84" t="s">
         <v>5</v>
@@ -26924,10 +30500,10 @@
         <v>18</v>
       </c>
       <c r="B85">
-        <v>2062</v>
+        <v>4283</v>
       </c>
       <c r="C85" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D85" t="s">
         <v>5</v>
@@ -26938,10 +30514,10 @@
         <v>19</v>
       </c>
       <c r="B86">
-        <v>1602</v>
+        <v>4156</v>
       </c>
       <c r="C86" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D86" t="s">
         <v>5</v>
@@ -26952,10 +30528,10 @@
         <v>20</v>
       </c>
       <c r="B87">
-        <v>1195</v>
+        <v>4014</v>
       </c>
       <c r="C87" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D87" t="s">
         <v>5</v>
@@ -26966,10 +30542,10 @@
         <v>21</v>
       </c>
       <c r="B88">
-        <v>862</v>
+        <v>3858</v>
       </c>
       <c r="C88" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
@@ -26980,10 +30556,10 @@
         <v>22</v>
       </c>
       <c r="B89">
-        <v>621</v>
+        <v>3688</v>
       </c>
       <c r="C89" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D89" t="s">
         <v>5</v>
@@ -26994,10 +30570,10 @@
         <v>23</v>
       </c>
       <c r="B90">
-        <v>486</v>
+        <v>3509</v>
       </c>
       <c r="C90" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D90" t="s">
         <v>5</v>
@@ -27008,10 +30584,10 @@
         <v>24</v>
       </c>
       <c r="B91">
-        <v>463</v>
+        <v>3320</v>
       </c>
       <c r="C91" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
@@ -27022,10 +30598,10 @@
         <v>25</v>
       </c>
       <c r="B92">
-        <v>554</v>
+        <v>3125</v>
       </c>
       <c r="C92" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
@@ -27036,10 +30612,10 @@
         <v>26</v>
       </c>
       <c r="B93">
-        <v>754</v>
+        <v>2923</v>
       </c>
       <c r="C93" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D93" t="s">
         <v>5</v>
@@ -27050,10 +30626,10 @@
         <v>27</v>
       </c>
       <c r="B94">
-        <v>1052</v>
+        <v>2718</v>
       </c>
       <c r="C94" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D94" t="s">
         <v>5</v>
@@ -27064,10 +30640,10 @@
         <v>28</v>
       </c>
       <c r="B95">
-        <v>1432</v>
+        <v>2512</v>
       </c>
       <c r="C95" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D95" t="s">
         <v>5</v>
@@ -27078,10 +30654,10 @@
         <v>29</v>
       </c>
       <c r="B96">
-        <v>1874</v>
+        <v>2306</v>
       </c>
       <c r="C96" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D96" t="s">
         <v>5</v>
@@ -27092,10 +30668,10 @@
         <v>30</v>
       </c>
       <c r="B97">
-        <v>2354</v>
+        <v>2104</v>
       </c>
       <c r="C97" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
@@ -27106,10 +30682,10 @@
         <v>31</v>
       </c>
       <c r="B98">
-        <v>2845</v>
+        <v>1905</v>
       </c>
       <c r="C98" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
@@ -27120,10 +30696,10 @@
         <v>32</v>
       </c>
       <c r="B99">
-        <v>3321</v>
+        <v>1711</v>
       </c>
       <c r="C99" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
@@ -27134,10 +30710,10 @@
         <v>33</v>
       </c>
       <c r="B100">
-        <v>3756</v>
+        <v>1526</v>
       </c>
       <c r="C100" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
@@ -27148,10 +30724,10 @@
         <v>34</v>
       </c>
       <c r="B101">
-        <v>4125</v>
+        <v>1351</v>
       </c>
       <c r="C101" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
@@ -27162,10 +30738,10 @@
         <v>35</v>
       </c>
       <c r="B102">
-        <v>4410</v>
+        <v>1188</v>
       </c>
       <c r="C102" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D102" t="s">
         <v>5</v>
@@ -27176,10 +30752,10 @@
         <v>36</v>
       </c>
       <c r="B103">
-        <v>4592</v>
+        <v>1038</v>
       </c>
       <c r="C103" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
@@ -27190,10 +30766,10 @@
         <v>37</v>
       </c>
       <c r="B104">
-        <v>4664</v>
+        <v>903</v>
       </c>
       <c r="C104" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D104" t="s">
         <v>5</v>
@@ -27204,10 +30780,10 @@
         <v>38</v>
       </c>
       <c r="B105">
-        <v>4622</v>
+        <v>784</v>
       </c>
       <c r="C105" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D105" t="s">
         <v>5</v>
@@ -27218,10 +30794,10 @@
         <v>39</v>
       </c>
       <c r="B106">
-        <v>4467</v>
+        <v>682</v>
       </c>
       <c r="C106" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D106" t="s">
         <v>5</v>
@@ -27232,10 +30808,10 @@
         <v>40</v>
       </c>
       <c r="B107">
-        <v>4208</v>
+        <v>598</v>
       </c>
       <c r="C107" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D107" t="s">
         <v>5</v>
@@ -27246,10 +30822,10 @@
         <v>41</v>
       </c>
       <c r="B108">
-        <v>3858</v>
+        <v>533</v>
       </c>
       <c r="C108" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D108" t="s">
         <v>5</v>
@@ -27260,10 +30836,10 @@
         <v>42</v>
       </c>
       <c r="B109">
-        <v>3437</v>
+        <v>487</v>
       </c>
       <c r="C109" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D109" t="s">
         <v>5</v>
@@ -27274,10 +30850,10 @@
         <v>43</v>
       </c>
       <c r="B110">
-        <v>2970</v>
+        <v>461</v>
       </c>
       <c r="C110" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D110" t="s">
         <v>5</v>
@@ -27288,10 +30864,10 @@
         <v>44</v>
       </c>
       <c r="B111">
-        <v>2479</v>
+        <v>456</v>
       </c>
       <c r="C111" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D111" t="s">
         <v>5</v>
@@ -27302,10 +30878,10 @@
         <v>45</v>
       </c>
       <c r="B112">
-        <v>1995</v>
+        <v>470</v>
       </c>
       <c r="C112" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D112" t="s">
         <v>5</v>
@@ -27316,10 +30892,10 @@
         <v>46</v>
       </c>
       <c r="B113">
-        <v>1541</v>
+        <v>505</v>
       </c>
       <c r="C113" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D113" t="s">
         <v>5</v>
@@ -27330,10 +30906,10 @@
         <v>47</v>
       </c>
       <c r="B114">
-        <v>1143</v>
+        <v>560</v>
       </c>
       <c r="C114" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D114" t="s">
         <v>5</v>
@@ -27344,10 +30920,10 @@
         <v>48</v>
       </c>
       <c r="B115">
-        <v>822</v>
+        <v>634</v>
       </c>
       <c r="C115" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="D115" t="s">
         <v>5</v>
@@ -27358,10 +30934,10 @@
         <v>49</v>
       </c>
       <c r="B116">
-        <v>596</v>
+        <v>727</v>
       </c>
       <c r="C116" t="s">
-        <v>349</v>
+        <v>434</v>
       </c>
       <c r="D116" t="s">
         <v>5</v>
@@ -27372,10 +30948,10 @@
         <v>50</v>
       </c>
       <c r="B117">
-        <v>476</v>
+        <v>837</v>
       </c>
       <c r="C117" t="s">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="D117" t="s">
         <v>5</v>
@@ -27386,10 +30962,10 @@
         <v>51</v>
       </c>
       <c r="B118">
-        <v>469</v>
+        <v>963</v>
       </c>
       <c r="C118" t="s">
-        <v>351</v>
+        <v>436</v>
       </c>
       <c r="D118" t="s">
         <v>5</v>
@@ -27400,10 +30976,10 @@
         <v>52</v>
       </c>
       <c r="B119">
-        <v>575</v>
+        <v>1105</v>
       </c>
       <c r="C119" t="s">
-        <v>352</v>
+        <v>437</v>
       </c>
       <c r="D119" t="s">
         <v>5</v>
@@ -27414,10 +30990,10 @@
         <v>53</v>
       </c>
       <c r="B120">
-        <v>789</v>
+        <v>1262</v>
       </c>
       <c r="C120" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D120" t="s">
         <v>5</v>
@@ -27428,10 +31004,10 @@
         <v>54</v>
       </c>
       <c r="B121">
-        <v>1100</v>
+        <v>1431</v>
       </c>
       <c r="C121" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D121" t="s">
         <v>5</v>
@@ -27442,10 +31018,10 @@
         <v>55</v>
       </c>
       <c r="B122">
-        <v>1490</v>
+        <v>1610</v>
       </c>
       <c r="C122" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D122" t="s">
         <v>5</v>
@@ -27456,10 +31032,10 @@
         <v>56</v>
       </c>
       <c r="B123">
-        <v>1938</v>
+        <v>1798</v>
       </c>
       <c r="C123" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D123" t="s">
         <v>5</v>
@@ -27470,10 +31046,10 @@
         <v>57</v>
       </c>
       <c r="B124">
-        <v>2421</v>
+        <v>1994</v>
       </c>
       <c r="C124" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D124" t="s">
         <v>5</v>
@@ -27484,10 +31060,10 @@
         <v>58</v>
       </c>
       <c r="B125">
-        <v>2911</v>
+        <v>2196</v>
       </c>
       <c r="C125" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D125" t="s">
         <v>5</v>
@@ -27498,10 +31074,10 @@
         <v>59</v>
       </c>
       <c r="B126">
-        <v>3382</v>
+        <v>2401</v>
       </c>
       <c r="C126" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D126" t="s">
         <v>5</v>
@@ -27512,10 +31088,10 @@
         <v>60</v>
       </c>
       <c r="B127">
-        <v>3810</v>
+        <v>2607</v>
       </c>
       <c r="C127" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D127" t="s">
         <v>5</v>
@@ -27526,10 +31102,10 @@
         <v>61</v>
       </c>
       <c r="B128">
-        <v>4170</v>
+        <v>2812</v>
       </c>
       <c r="C128" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D128" t="s">
         <v>5</v>
@@ -27540,10 +31116,10 @@
         <v>62</v>
       </c>
       <c r="B129">
-        <v>4441</v>
+        <v>3016</v>
       </c>
       <c r="C129" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D129" t="s">
         <v>5</v>
@@ -27554,10 +31130,10 @@
         <v>63</v>
       </c>
       <c r="B130">
-        <v>4609</v>
+        <v>3215</v>
       </c>
       <c r="C130" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D130" t="s">
         <v>5</v>
@@ -27565,16 +31141,16 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>106</v>
-      </c>
-      <c r="B131" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="B131">
+        <v>128</v>
       </c>
       <c r="C131" t="s">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="D131" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
